--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1314.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1314.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.003637580268855</v>
+        <v>1.03681468963623</v>
       </c>
       <c r="B1">
-        <v>2.368060119388447</v>
+        <v>1.927991390228271</v>
       </c>
       <c r="C1">
-        <v>5.256333670627349</v>
+        <v>8.018400192260742</v>
       </c>
       <c r="D1">
-        <v>2.368749334486404</v>
+        <v>1.815383791923523</v>
       </c>
       <c r="E1">
-        <v>1.26882800738377</v>
+        <v>0.7094436287879944</v>
       </c>
     </row>
   </sheetData>
